--- a/biology/Zoologie/Anniella_pulchra/Anniella_pulchra.xlsx
+++ b/biology/Zoologie/Anniella_pulchra/Anniella_pulchra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anniella pulchra est une espèce de sauriens de la famille des Anniellidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anniella pulchra est une espèce de sauriens de la famille des Anniellidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de Californie aux États-Unis,.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">C'est un lézard apode fouisseur, apode, mesurant environ 17 centimètres de long. Il possède de fines écailles, jaune au niveau du ventre et gris-argenté sur le dessus, bien qu'il existe des formes mélaniques, brunes à noires[4].
-Ils vivent typiquement dans les dunes de sable près des côtes, mais qui fréquentent aussi les sols des forêts. Ils ont besoin d'humidité pour muer[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est un lézard apode fouisseur, apode, mesurant environ 17 centimètres de long. Il possède de fines écailles, jaune au niveau du ventre et gris-argenté sur le dessus, bien qu'il existe des formes mélaniques, brunes à noires.
+Ils vivent typiquement dans les dunes de sable près des côtes, mais qui fréquentent aussi les sols des forêts. Ils ont besoin d'humidité pour muer.
 Ils se nourrissent principalement de larves d'insectes, de termites, de fourmis, d'araignées…
 Les mâles sont un peu moins grands que les femelles. Ces dernières sont ovovivipares et se reproduisent probablement au début du printemps, donnant naissance de 1 à 4 petits durant les mois de septembre, octobre et novembre. Les petits sont similaires aux adultes, à l'exception de la taille.
 </t>
@@ -576,9 +592,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La sous-espèce Anniella pulchra nigra[6] a été placée en synonymie avec Anniella pulchra[3]. Papenfuss et Parham ont démontré que ce sont simplement deux phases d'une unique espèce[2]. Ils ont déterminé que l'espèce Anniella pulchra dans sa conception traditionnelle était composée de cinq espèces cryptiques.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La sous-espèce Anniella pulchra nigra a été placée en synonymie avec Anniella pulchra. Papenfuss et Parham ont démontré que ce sont simplement deux phases d'une unique espèce. Ils ont déterminé que l'espèce Anniella pulchra dans sa conception traditionnelle était composée de cinq espèces cryptiques.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique, pulchra, vient du latin « pulcher » qui signifie beau, joli[1].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique, pulchra, vient du latin « pulcher » qui signifie beau, joli.
 </t>
         </is>
       </c>
@@ -638,7 +658,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Gray, 1852 : Description of several new genera of reptiles, principally from the collection of H.M.S. Herald. Annals and Magazine of Natural History, sér. 2, vol. 10, p. 437-44 (texte intégral).</t>
         </is>
